--- a/LeadAssignmentPK.xlsx
+++ b/LeadAssignmentPK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96F174-C99A-4829-9052-C264BD5CD037}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E61203F-136E-446F-B4D1-D1BE5A4B4B6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,13 +196,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J8" totalsRowShown="0">
-  <autoFilter ref="A1:J8" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -507,7 +501,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -593,7 +587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>20</v>
       </c>
@@ -604,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>23</v>
       </c>
@@ -615,7 +609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -626,7 +620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>29</v>
       </c>
@@ -637,7 +631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>32</v>
       </c>
